--- a/reports/nbeats_tuned_params.xlsx
+++ b/reports/nbeats_tuned_params.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI502"/>
+  <dimension ref="A1:AI573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50868,7 +50868,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>46001.66820901544</v>
+        <v>46001.66820901621</v>
       </c>
       <c r="B502" t="inlineStr"/>
       <c r="C502" t="inlineStr"/>
@@ -50959,6 +50959,6925 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>46002.18760349537</v>
+      </c>
+      <c r="B503" t="n">
+        <v>1.144890740513802</v>
+      </c>
+      <c r="C503" t="n">
+        <v>0.1500757336616516</v>
+      </c>
+      <c r="D503" t="n">
+        <v>0.1695562452077866</v>
+      </c>
+      <c r="E503" t="n">
+        <v>0.2596361041069031</v>
+      </c>
+      <c r="F503" t="n">
+        <v>0.1477270573377609</v>
+      </c>
+      <c r="G503" t="n">
+        <v>0.1563177555799484</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0.261577844619751</v>
+      </c>
+      <c r="I503" t="n">
+        <v>162.3739</v>
+      </c>
+      <c r="J503" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic288_oc24_bs32_st23_bl1_ly4_wd512_dp0.05_lr2e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M503" t="b">
+        <v>1</v>
+      </c>
+      <c r="N503" t="n">
+        <v>397.44775390625</v>
+      </c>
+      <c r="O503" t="n">
+        <v>1501.775601148605</v>
+      </c>
+      <c r="P503" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q503" t="n">
+        <v>288</v>
+      </c>
+      <c r="R503" t="n">
+        <v>24</v>
+      </c>
+      <c r="S503" t="n">
+        <v>32</v>
+      </c>
+      <c r="T503" t="n">
+        <v>32</v>
+      </c>
+      <c r="U503" t="n">
+        <v>23</v>
+      </c>
+      <c r="V503" t="n">
+        <v>1</v>
+      </c>
+      <c r="W503" t="n">
+        <v>4</v>
+      </c>
+      <c r="X503" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y503" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z503" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA503" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB503" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC503" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD503" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE503" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF503" t="inlineStr"/>
+      <c r="AG503" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH503" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic288_oc24_bs32_st23_bl1_ly4_wd512_dp0.05_lr2e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI503" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>46002.21078434028</v>
+      </c>
+      <c r="B504" t="n">
+        <v>0.9514559060335159</v>
+      </c>
+      <c r="C504" t="n">
+        <v>0.1251169294118881</v>
+      </c>
+      <c r="D504" t="n">
+        <v>0.1448275446891785</v>
+      </c>
+      <c r="E504" t="n">
+        <v>0.2115063071250916</v>
+      </c>
+      <c r="F504" t="n">
+        <v>0.1220194846391678</v>
+      </c>
+      <c r="G504" t="n">
+        <v>0.1360920518636703</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0.2118935883045197</v>
+      </c>
+      <c r="I504" t="n">
+        <v>120.2709</v>
+      </c>
+      <c r="J504" t="n">
+        <v>1.2823</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr2e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M504" t="b">
+        <v>1</v>
+      </c>
+      <c r="N504" t="n">
+        <v>152.0283203125</v>
+      </c>
+      <c r="O504" t="n">
+        <v>2001.271803617477</v>
+      </c>
+      <c r="P504" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q504" t="n">
+        <v>72</v>
+      </c>
+      <c r="R504" t="n">
+        <v>24</v>
+      </c>
+      <c r="S504" t="n">
+        <v>68</v>
+      </c>
+      <c r="T504" t="n">
+        <v>32</v>
+      </c>
+      <c r="U504" t="n">
+        <v>23</v>
+      </c>
+      <c r="V504" t="n">
+        <v>1</v>
+      </c>
+      <c r="W504" t="n">
+        <v>4</v>
+      </c>
+      <c r="X504" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y504" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z504" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA504" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB504" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC504" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD504" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE504" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF504" t="inlineStr"/>
+      <c r="AG504" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH504" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr2e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI504" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>46002.22780015046</v>
+      </c>
+      <c r="B505" t="n">
+        <v>1.817779660224915</v>
+      </c>
+      <c r="C505" t="n">
+        <v>0.2336875349283218</v>
+      </c>
+      <c r="D505" t="n">
+        <v>0.2740263938903809</v>
+      </c>
+      <c r="E505" t="n">
+        <v>0.4013539552688599</v>
+      </c>
+      <c r="F505" t="n">
+        <v>0.2433663457632065</v>
+      </c>
+      <c r="G505" t="n">
+        <v>0.2404959499835968</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0.4248494803905487</v>
+      </c>
+      <c r="I505" t="n">
+        <v>213.1482</v>
+      </c>
+      <c r="J505" t="n">
+        <v>-0.4309</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic264_oc24_bs32_st23_bl1_ly4_wd512_dp0.4_lr1e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M505" t="b">
+        <v>1</v>
+      </c>
+      <c r="N505" t="n">
+        <v>370.1689453125</v>
+      </c>
+      <c r="O505" t="n">
+        <v>1468.796927928925</v>
+      </c>
+      <c r="P505" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q505" t="n">
+        <v>264</v>
+      </c>
+      <c r="R505" t="n">
+        <v>24</v>
+      </c>
+      <c r="S505" t="n">
+        <v>27</v>
+      </c>
+      <c r="T505" t="n">
+        <v>32</v>
+      </c>
+      <c r="U505" t="n">
+        <v>23</v>
+      </c>
+      <c r="V505" t="n">
+        <v>1</v>
+      </c>
+      <c r="W505" t="n">
+        <v>4</v>
+      </c>
+      <c r="X505" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y505" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z505" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AA505" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB505" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC505" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD505" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE505" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF505" t="inlineStr"/>
+      <c r="AG505" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH505" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic264_oc24_bs32_st23_bl1_ly4_wd512_dp0.4_lr1e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI505" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>46002.24728538194</v>
+      </c>
+      <c r="B506" t="n">
+        <v>1.251530945301056</v>
+      </c>
+      <c r="C506" t="n">
+        <v>0.1613359451293945</v>
+      </c>
+      <c r="D506" t="n">
+        <v>0.1863656342029572</v>
+      </c>
+      <c r="E506" t="n">
+        <v>0.2877928912639618</v>
+      </c>
+      <c r="F506" t="n">
+        <v>0.1562315672636032</v>
+      </c>
+      <c r="G506" t="n">
+        <v>0.1723876744508743</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0.2874172329902649</v>
+      </c>
+      <c r="I506" t="n">
+        <v>259.9597</v>
+      </c>
+      <c r="J506" t="n">
+        <v>0.6933</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic120_oc24_bs32_st23_bl1_ly4_wd512_dp0.3_lr2e-05_encodersTrue_stride24_vl0.2_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M506" t="b">
+        <v>1</v>
+      </c>
+      <c r="N506" t="n">
+        <v>304.96484375</v>
+      </c>
+      <c r="O506" t="n">
+        <v>1681.961837053299</v>
+      </c>
+      <c r="P506" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q506" t="n">
+        <v>120</v>
+      </c>
+      <c r="R506" t="n">
+        <v>24</v>
+      </c>
+      <c r="S506" t="n">
+        <v>33</v>
+      </c>
+      <c r="T506" t="n">
+        <v>32</v>
+      </c>
+      <c r="U506" t="n">
+        <v>23</v>
+      </c>
+      <c r="V506" t="n">
+        <v>1</v>
+      </c>
+      <c r="W506" t="n">
+        <v>4</v>
+      </c>
+      <c r="X506" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y506" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z506" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA506" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB506" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC506" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD506" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE506" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF506" t="inlineStr">
+        <is>
+          <t>{"cyclic": {"past": ["hour", "day", "dayofweek", "dayofyear", "week", "weekday", "weekofyear", "month", "quarter"]}}</t>
+        </is>
+      </c>
+      <c r="AG506" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH506" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic120_oc24_bs32_st23_bl1_ly4_wd512_dp0.3_lr2e-05_encodersTrue_stride24_vl0.2_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI506" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>46002.28447942129</v>
+      </c>
+      <c r="B507" t="n">
+        <v>0.8791218474507332</v>
+      </c>
+      <c r="C507" t="n">
+        <v>0.1143341884016991</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0.1296691298484802</v>
+      </c>
+      <c r="E507" t="n">
+        <v>0.1952022463083267</v>
+      </c>
+      <c r="F507" t="n">
+        <v>0.1105094254016876</v>
+      </c>
+      <c r="G507" t="n">
+        <v>0.1255587190389633</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0.2038481384515762</v>
+      </c>
+      <c r="I507" t="n">
+        <v>167.7383</v>
+      </c>
+      <c r="J507" t="n">
+        <v>2.726</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic264_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M507" t="b">
+        <v>1</v>
+      </c>
+      <c r="N507" t="n">
+        <v>370.1689453125</v>
+      </c>
+      <c r="O507" t="n">
+        <v>3212.001233816147</v>
+      </c>
+      <c r="P507" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q507" t="n">
+        <v>264</v>
+      </c>
+      <c r="R507" t="n">
+        <v>24</v>
+      </c>
+      <c r="S507" t="n">
+        <v>68</v>
+      </c>
+      <c r="T507" t="n">
+        <v>32</v>
+      </c>
+      <c r="U507" t="n">
+        <v>23</v>
+      </c>
+      <c r="V507" t="n">
+        <v>1</v>
+      </c>
+      <c r="W507" t="n">
+        <v>4</v>
+      </c>
+      <c r="X507" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y507" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z507" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA507" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB507" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC507" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD507" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE507" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF507" t="inlineStr"/>
+      <c r="AG507" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH507" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic264_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI507" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>46002.2874509375</v>
+      </c>
+      <c r="B508" t="inlineStr"/>
+      <c r="C508" t="inlineStr"/>
+      <c r="D508" t="inlineStr"/>
+      <c r="E508" t="inlineStr"/>
+      <c r="F508" t="inlineStr"/>
+      <c r="G508" t="inlineStr"/>
+      <c r="H508" t="inlineStr"/>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic168_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr5e-05_encodersTrue_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M508" t="b">
+        <v>1</v>
+      </c>
+      <c r="N508" t="inlineStr"/>
+      <c r="O508" t="inlineStr"/>
+      <c r="P508" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q508" t="n">
+        <v>168</v>
+      </c>
+      <c r="R508" t="n">
+        <v>24</v>
+      </c>
+      <c r="S508" t="inlineStr"/>
+      <c r="T508" t="n">
+        <v>32</v>
+      </c>
+      <c r="U508" t="n">
+        <v>23</v>
+      </c>
+      <c r="V508" t="n">
+        <v>1</v>
+      </c>
+      <c r="W508" t="n">
+        <v>4</v>
+      </c>
+      <c r="X508" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y508" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z508" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA508" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB508" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC508" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD508" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE508" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF508" t="inlineStr">
+        <is>
+          <t>{"cyclic": {"past": ["hour", "day", "dayofweek", "dayofyear", "week", "weekday", "weekofyear", "month", "quarter"]}}</t>
+        </is>
+      </c>
+      <c r="AG508" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH508" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic168_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr5e-05_encodersTrue_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI508" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>46002.2888121875</v>
+      </c>
+      <c r="B509" t="inlineStr"/>
+      <c r="C509" t="inlineStr"/>
+      <c r="D509" t="inlineStr"/>
+      <c r="E509" t="inlineStr"/>
+      <c r="F509" t="inlineStr"/>
+      <c r="G509" t="inlineStr"/>
+      <c r="H509" t="inlineStr"/>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr2e-05_encodersFalse_stride24_vl0.2_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M509" t="b">
+        <v>1</v>
+      </c>
+      <c r="N509" t="inlineStr"/>
+      <c r="O509" t="inlineStr"/>
+      <c r="P509" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q509" t="n">
+        <v>72</v>
+      </c>
+      <c r="R509" t="n">
+        <v>24</v>
+      </c>
+      <c r="S509" t="inlineStr"/>
+      <c r="T509" t="n">
+        <v>32</v>
+      </c>
+      <c r="U509" t="n">
+        <v>23</v>
+      </c>
+      <c r="V509" t="n">
+        <v>1</v>
+      </c>
+      <c r="W509" t="n">
+        <v>4</v>
+      </c>
+      <c r="X509" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y509" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z509" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA509" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB509" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC509" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD509" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE509" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF509" t="inlineStr"/>
+      <c r="AG509" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH509" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr2e-05_encodersFalse_stride24_vl0.2_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI509" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>46002.29100037037</v>
+      </c>
+      <c r="B510" t="inlineStr"/>
+      <c r="C510" t="inlineStr"/>
+      <c r="D510" t="inlineStr"/>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" t="inlineStr"/>
+      <c r="G510" t="inlineStr"/>
+      <c r="H510" t="inlineStr"/>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic312_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.2_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M510" t="b">
+        <v>1</v>
+      </c>
+      <c r="N510" t="inlineStr"/>
+      <c r="O510" t="inlineStr"/>
+      <c r="P510" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q510" t="n">
+        <v>312</v>
+      </c>
+      <c r="R510" t="n">
+        <v>24</v>
+      </c>
+      <c r="S510" t="inlineStr"/>
+      <c r="T510" t="n">
+        <v>32</v>
+      </c>
+      <c r="U510" t="n">
+        <v>23</v>
+      </c>
+      <c r="V510" t="n">
+        <v>1</v>
+      </c>
+      <c r="W510" t="n">
+        <v>4</v>
+      </c>
+      <c r="X510" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y510" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z510" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA510" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB510" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC510" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD510" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE510" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF510" t="inlineStr"/>
+      <c r="AG510" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH510" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic312_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.2_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI510" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>46002.30495847222</v>
+      </c>
+      <c r="B511" t="n">
+        <v>1.255380138754845</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.161902979016304</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0.1870588660240173</v>
+      </c>
+      <c r="E511" t="n">
+        <v>0.2720544636249542</v>
+      </c>
+      <c r="F511" t="n">
+        <v>0.1572355479001999</v>
+      </c>
+      <c r="G511" t="n">
+        <v>0.1738552302122116</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0.3032730519771576</v>
+      </c>
+      <c r="I511" t="n">
+        <v>157.8301</v>
+      </c>
+      <c r="J511" t="n">
+        <v>0.6539</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic192_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersTrue_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M511" t="b">
+        <v>1</v>
+      </c>
+      <c r="N511" t="n">
+        <v>445.67138671875</v>
+      </c>
+      <c r="O511" t="n">
+        <v>1204.302999019623</v>
+      </c>
+      <c r="P511" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q511" t="n">
+        <v>192</v>
+      </c>
+      <c r="R511" t="n">
+        <v>24</v>
+      </c>
+      <c r="S511" t="n">
+        <v>17</v>
+      </c>
+      <c r="T511" t="n">
+        <v>32</v>
+      </c>
+      <c r="U511" t="n">
+        <v>23</v>
+      </c>
+      <c r="V511" t="n">
+        <v>1</v>
+      </c>
+      <c r="W511" t="n">
+        <v>4</v>
+      </c>
+      <c r="X511" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y511" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z511" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA511" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB511" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC511" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD511" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE511" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF511" t="inlineStr">
+        <is>
+          <t>{"cyclic": {"past": ["hour", "day", "dayofweek", "dayofyear", "week", "weekday", "weekofyear", "month", "quarter"]}}</t>
+        </is>
+      </c>
+      <c r="AG511" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH511" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic192_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersTrue_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI511" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>46002.32472853009</v>
+      </c>
+      <c r="B512" t="inlineStr"/>
+      <c r="C512" t="inlineStr"/>
+      <c r="D512" t="inlineStr"/>
+      <c r="E512" t="inlineStr"/>
+      <c r="F512" t="inlineStr"/>
+      <c r="G512" t="inlineStr"/>
+      <c r="H512" t="inlineStr"/>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic192_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M512" t="b">
+        <v>1</v>
+      </c>
+      <c r="N512" t="inlineStr"/>
+      <c r="O512" t="inlineStr"/>
+      <c r="P512" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q512" t="n">
+        <v>192</v>
+      </c>
+      <c r="R512" t="n">
+        <v>24</v>
+      </c>
+      <c r="S512" t="inlineStr"/>
+      <c r="T512" t="n">
+        <v>32</v>
+      </c>
+      <c r="U512" t="n">
+        <v>23</v>
+      </c>
+      <c r="V512" t="n">
+        <v>1</v>
+      </c>
+      <c r="W512" t="n">
+        <v>4</v>
+      </c>
+      <c r="X512" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y512" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z512" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA512" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB512" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC512" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD512" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE512" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF512" t="inlineStr"/>
+      <c r="AG512" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH512" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic192_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI512" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>46002.32501412037</v>
+      </c>
+      <c r="B513" t="inlineStr"/>
+      <c r="C513" t="inlineStr"/>
+      <c r="D513" t="inlineStr"/>
+      <c r="E513" t="inlineStr"/>
+      <c r="F513" t="inlineStr"/>
+      <c r="G513" t="inlineStr"/>
+      <c r="H513" t="inlineStr"/>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic48_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr1e-05_encodersTrue_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M513" t="b">
+        <v>1</v>
+      </c>
+      <c r="N513" t="inlineStr"/>
+      <c r="O513" t="inlineStr"/>
+      <c r="P513" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q513" t="n">
+        <v>48</v>
+      </c>
+      <c r="R513" t="n">
+        <v>24</v>
+      </c>
+      <c r="S513" t="inlineStr"/>
+      <c r="T513" t="n">
+        <v>32</v>
+      </c>
+      <c r="U513" t="n">
+        <v>23</v>
+      </c>
+      <c r="V513" t="n">
+        <v>1</v>
+      </c>
+      <c r="W513" t="n">
+        <v>4</v>
+      </c>
+      <c r="X513" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y513" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z513" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AA513" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB513" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC513" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD513" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE513" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF513" t="inlineStr">
+        <is>
+          <t>{"cyclic": {"past": ["hour", "day", "dayofweek", "dayofyear", "week", "weekday", "weekofyear", "month", "quarter"]}}</t>
+        </is>
+      </c>
+      <c r="AG513" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH513" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic48_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr1e-05_encodersTrue_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI513" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>46002.32551136574</v>
+      </c>
+      <c r="B514" t="inlineStr"/>
+      <c r="C514" t="inlineStr"/>
+      <c r="D514" t="inlineStr"/>
+      <c r="E514" t="inlineStr"/>
+      <c r="F514" t="inlineStr"/>
+      <c r="G514" t="inlineStr"/>
+      <c r="H514" t="inlineStr"/>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic24_oc24_bs32_st23_bl1_ly4_wd512_dp0.25_lr2e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M514" t="b">
+        <v>1</v>
+      </c>
+      <c r="N514" t="inlineStr"/>
+      <c r="O514" t="inlineStr"/>
+      <c r="P514" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q514" t="n">
+        <v>24</v>
+      </c>
+      <c r="R514" t="n">
+        <v>24</v>
+      </c>
+      <c r="S514" t="inlineStr"/>
+      <c r="T514" t="n">
+        <v>32</v>
+      </c>
+      <c r="U514" t="n">
+        <v>23</v>
+      </c>
+      <c r="V514" t="n">
+        <v>1</v>
+      </c>
+      <c r="W514" t="n">
+        <v>4</v>
+      </c>
+      <c r="X514" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y514" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z514" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA514" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB514" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC514" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD514" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE514" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF514" t="inlineStr"/>
+      <c r="AG514" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH514" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic24_oc24_bs32_st23_bl1_ly4_wd512_dp0.25_lr2e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI514" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>46002.33913037037</v>
+      </c>
+      <c r="B515" t="n">
+        <v>1.392074897885323</v>
+      </c>
+      <c r="C515" t="n">
+        <v>0.1800428777933121</v>
+      </c>
+      <c r="D515" t="n">
+        <v>0.2047614753246307</v>
+      </c>
+      <c r="E515" t="n">
+        <v>0.3256856501102448</v>
+      </c>
+      <c r="F515" t="n">
+        <v>0.1781627684831619</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0.1941900104284286</v>
+      </c>
+      <c r="H515" t="n">
+        <v>0.3092321157455444</v>
+      </c>
+      <c r="I515" t="n">
+        <v>160.0004</v>
+      </c>
+      <c r="J515" t="n">
+        <v>-0.3223</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic216_oc24_bs32_st23_bl1_ly4_wd512_dp0.45_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M515" t="b">
+        <v>1</v>
+      </c>
+      <c r="N515" t="n">
+        <v>315.6337890625</v>
+      </c>
+      <c r="O515" t="n">
+        <v>1155.357311725616</v>
+      </c>
+      <c r="P515" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q515" t="n">
+        <v>216</v>
+      </c>
+      <c r="R515" t="n">
+        <v>24</v>
+      </c>
+      <c r="S515" t="n">
+        <v>21</v>
+      </c>
+      <c r="T515" t="n">
+        <v>32</v>
+      </c>
+      <c r="U515" t="n">
+        <v>23</v>
+      </c>
+      <c r="V515" t="n">
+        <v>1</v>
+      </c>
+      <c r="W515" t="n">
+        <v>4</v>
+      </c>
+      <c r="X515" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y515" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Z515" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA515" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB515" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC515" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD515" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE515" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF515" t="inlineStr"/>
+      <c r="AG515" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH515" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic216_oc24_bs32_st23_bl1_ly4_wd512_dp0.45_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI515" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>46002.33946659722</v>
+      </c>
+      <c r="B516" t="inlineStr"/>
+      <c r="C516" t="inlineStr"/>
+      <c r="D516" t="inlineStr"/>
+      <c r="E516" t="inlineStr"/>
+      <c r="F516" t="inlineStr"/>
+      <c r="G516" t="inlineStr"/>
+      <c r="H516" t="inlineStr"/>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic240_oc24_bs32_st23_bl1_ly4_wd512_dp0.2_lr2e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M516" t="b">
+        <v>1</v>
+      </c>
+      <c r="N516" t="inlineStr"/>
+      <c r="O516" t="inlineStr"/>
+      <c r="P516" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q516" t="n">
+        <v>240</v>
+      </c>
+      <c r="R516" t="n">
+        <v>24</v>
+      </c>
+      <c r="S516" t="inlineStr"/>
+      <c r="T516" t="n">
+        <v>32</v>
+      </c>
+      <c r="U516" t="n">
+        <v>23</v>
+      </c>
+      <c r="V516" t="n">
+        <v>1</v>
+      </c>
+      <c r="W516" t="n">
+        <v>4</v>
+      </c>
+      <c r="X516" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y516" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z516" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA516" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB516" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC516" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD516" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE516" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF516" t="inlineStr"/>
+      <c r="AG516" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH516" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic240_oc24_bs32_st23_bl1_ly4_wd512_dp0.2_lr2e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI516" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>46002.33973842592</v>
+      </c>
+      <c r="B517" t="inlineStr"/>
+      <c r="C517" t="inlineStr"/>
+      <c r="D517" t="inlineStr"/>
+      <c r="E517" t="inlineStr"/>
+      <c r="F517" t="inlineStr"/>
+      <c r="G517" t="inlineStr"/>
+      <c r="H517" t="inlineStr"/>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.5_lr1e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M517" t="b">
+        <v>1</v>
+      </c>
+      <c r="N517" t="inlineStr"/>
+      <c r="O517" t="inlineStr"/>
+      <c r="P517" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q517" t="n">
+        <v>72</v>
+      </c>
+      <c r="R517" t="n">
+        <v>24</v>
+      </c>
+      <c r="S517" t="inlineStr"/>
+      <c r="T517" t="n">
+        <v>32</v>
+      </c>
+      <c r="U517" t="n">
+        <v>23</v>
+      </c>
+      <c r="V517" t="n">
+        <v>1</v>
+      </c>
+      <c r="W517" t="n">
+        <v>4</v>
+      </c>
+      <c r="X517" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y517" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z517" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AA517" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB517" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC517" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD517" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE517" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF517" t="inlineStr"/>
+      <c r="AG517" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH517" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.5_lr1e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI517" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>46002.34388252315</v>
+      </c>
+      <c r="B518" t="inlineStr"/>
+      <c r="C518" t="inlineStr"/>
+      <c r="D518" t="inlineStr"/>
+      <c r="E518" t="inlineStr"/>
+      <c r="F518" t="inlineStr"/>
+      <c r="G518" t="inlineStr"/>
+      <c r="H518" t="inlineStr"/>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic336_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M518" t="b">
+        <v>1</v>
+      </c>
+      <c r="N518" t="inlineStr"/>
+      <c r="O518" t="inlineStr"/>
+      <c r="P518" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q518" t="n">
+        <v>336</v>
+      </c>
+      <c r="R518" t="n">
+        <v>24</v>
+      </c>
+      <c r="S518" t="inlineStr"/>
+      <c r="T518" t="n">
+        <v>32</v>
+      </c>
+      <c r="U518" t="n">
+        <v>23</v>
+      </c>
+      <c r="V518" t="n">
+        <v>1</v>
+      </c>
+      <c r="W518" t="n">
+        <v>4</v>
+      </c>
+      <c r="X518" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y518" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z518" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA518" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB518" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC518" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD518" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE518" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF518" t="inlineStr"/>
+      <c r="AG518" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH518" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic336_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI518" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>46002.34422807871</v>
+      </c>
+      <c r="B519" t="inlineStr"/>
+      <c r="C519" t="inlineStr"/>
+      <c r="D519" t="inlineStr"/>
+      <c r="E519" t="inlineStr"/>
+      <c r="F519" t="inlineStr"/>
+      <c r="G519" t="inlineStr"/>
+      <c r="H519" t="inlineStr"/>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic264_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr2e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M519" t="b">
+        <v>1</v>
+      </c>
+      <c r="N519" t="inlineStr"/>
+      <c r="O519" t="inlineStr"/>
+      <c r="P519" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q519" t="n">
+        <v>264</v>
+      </c>
+      <c r="R519" t="n">
+        <v>24</v>
+      </c>
+      <c r="S519" t="inlineStr"/>
+      <c r="T519" t="n">
+        <v>32</v>
+      </c>
+      <c r="U519" t="n">
+        <v>23</v>
+      </c>
+      <c r="V519" t="n">
+        <v>1</v>
+      </c>
+      <c r="W519" t="n">
+        <v>4</v>
+      </c>
+      <c r="X519" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y519" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z519" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA519" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB519" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC519" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD519" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE519" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF519" t="inlineStr"/>
+      <c r="AG519" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH519" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic264_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr2e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI519" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>46002.34630461806</v>
+      </c>
+      <c r="B520" t="inlineStr"/>
+      <c r="C520" t="inlineStr"/>
+      <c r="D520" t="inlineStr"/>
+      <c r="E520" t="inlineStr"/>
+      <c r="F520" t="inlineStr"/>
+      <c r="G520" t="inlineStr"/>
+      <c r="H520" t="inlineStr"/>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic144_oc24_bs32_st23_bl1_ly4_wd512_dp0.2_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M520" t="b">
+        <v>1</v>
+      </c>
+      <c r="N520" t="inlineStr"/>
+      <c r="O520" t="inlineStr"/>
+      <c r="P520" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q520" t="n">
+        <v>144</v>
+      </c>
+      <c r="R520" t="n">
+        <v>24</v>
+      </c>
+      <c r="S520" t="inlineStr"/>
+      <c r="T520" t="n">
+        <v>32</v>
+      </c>
+      <c r="U520" t="n">
+        <v>23</v>
+      </c>
+      <c r="V520" t="n">
+        <v>1</v>
+      </c>
+      <c r="W520" t="n">
+        <v>4</v>
+      </c>
+      <c r="X520" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y520" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z520" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA520" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB520" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC520" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD520" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE520" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF520" t="inlineStr"/>
+      <c r="AG520" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH520" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic144_oc24_bs32_st23_bl1_ly4_wd512_dp0.2_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI520" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>46002.34661680555</v>
+      </c>
+      <c r="B521" t="inlineStr"/>
+      <c r="C521" t="inlineStr"/>
+      <c r="D521" t="inlineStr"/>
+      <c r="E521" t="inlineStr"/>
+      <c r="F521" t="inlineStr"/>
+      <c r="G521" t="inlineStr"/>
+      <c r="H521" t="inlineStr"/>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic96_oc24_bs32_st23_bl1_ly4_wd512_dp0.25_lr2e-05_encodersTrue_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M521" t="b">
+        <v>1</v>
+      </c>
+      <c r="N521" t="inlineStr"/>
+      <c r="O521" t="inlineStr"/>
+      <c r="P521" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q521" t="n">
+        <v>96</v>
+      </c>
+      <c r="R521" t="n">
+        <v>24</v>
+      </c>
+      <c r="S521" t="inlineStr"/>
+      <c r="T521" t="n">
+        <v>32</v>
+      </c>
+      <c r="U521" t="n">
+        <v>23</v>
+      </c>
+      <c r="V521" t="n">
+        <v>1</v>
+      </c>
+      <c r="W521" t="n">
+        <v>4</v>
+      </c>
+      <c r="X521" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y521" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z521" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA521" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB521" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC521" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD521" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE521" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF521" t="inlineStr">
+        <is>
+          <t>{"cyclic": {"past": ["hour", "day", "dayofweek", "dayofyear", "week", "weekday", "weekofyear", "month", "quarter"]}}</t>
+        </is>
+      </c>
+      <c r="AG521" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH521" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic96_oc24_bs32_st23_bl1_ly4_wd512_dp0.25_lr2e-05_encodersTrue_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI521" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>46002.34713875</v>
+      </c>
+      <c r="B522" t="inlineStr"/>
+      <c r="C522" t="inlineStr"/>
+      <c r="D522" t="inlineStr"/>
+      <c r="E522" t="inlineStr"/>
+      <c r="F522" t="inlineStr"/>
+      <c r="G522" t="inlineStr"/>
+      <c r="H522" t="inlineStr"/>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.3_lr1e-05_encodersFalse_stride24_vl0.2_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M522" t="b">
+        <v>1</v>
+      </c>
+      <c r="N522" t="inlineStr"/>
+      <c r="O522" t="inlineStr"/>
+      <c r="P522" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q522" t="n">
+        <v>72</v>
+      </c>
+      <c r="R522" t="n">
+        <v>24</v>
+      </c>
+      <c r="S522" t="inlineStr"/>
+      <c r="T522" t="n">
+        <v>32</v>
+      </c>
+      <c r="U522" t="n">
+        <v>23</v>
+      </c>
+      <c r="V522" t="n">
+        <v>1</v>
+      </c>
+      <c r="W522" t="n">
+        <v>4</v>
+      </c>
+      <c r="X522" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y522" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z522" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AA522" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB522" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC522" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD522" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE522" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF522" t="inlineStr"/>
+      <c r="AG522" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH522" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.3_lr1e-05_encodersFalse_stride24_vl0.2_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI522" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>46002.35347038195</v>
+      </c>
+      <c r="B523" t="inlineStr"/>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="inlineStr"/>
+      <c r="F523" t="inlineStr"/>
+      <c r="G523" t="inlineStr"/>
+      <c r="H523" t="inlineStr"/>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic264_oc24_bs32_st23_bl1_ly4_wd512_dp0.05_lr2e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M523" t="b">
+        <v>1</v>
+      </c>
+      <c r="N523" t="inlineStr"/>
+      <c r="O523" t="inlineStr"/>
+      <c r="P523" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q523" t="n">
+        <v>264</v>
+      </c>
+      <c r="R523" t="n">
+        <v>24</v>
+      </c>
+      <c r="S523" t="inlineStr"/>
+      <c r="T523" t="n">
+        <v>32</v>
+      </c>
+      <c r="U523" t="n">
+        <v>23</v>
+      </c>
+      <c r="V523" t="n">
+        <v>1</v>
+      </c>
+      <c r="W523" t="n">
+        <v>4</v>
+      </c>
+      <c r="X523" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y523" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z523" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA523" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB523" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC523" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD523" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE523" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF523" t="inlineStr"/>
+      <c r="AG523" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH523" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic264_oc24_bs32_st23_bl1_ly4_wd512_dp0.05_lr2e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI523" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>46002.35404429398</v>
+      </c>
+      <c r="B524" t="inlineStr"/>
+      <c r="C524" t="inlineStr"/>
+      <c r="D524" t="inlineStr"/>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="inlineStr"/>
+      <c r="G524" t="inlineStr"/>
+      <c r="H524" t="inlineStr"/>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic288_oc24_bs32_st23_bl1_ly4_wd512_dp0.5_lr2e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M524" t="b">
+        <v>1</v>
+      </c>
+      <c r="N524" t="inlineStr"/>
+      <c r="O524" t="inlineStr"/>
+      <c r="P524" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q524" t="n">
+        <v>288</v>
+      </c>
+      <c r="R524" t="n">
+        <v>24</v>
+      </c>
+      <c r="S524" t="inlineStr"/>
+      <c r="T524" t="n">
+        <v>32</v>
+      </c>
+      <c r="U524" t="n">
+        <v>23</v>
+      </c>
+      <c r="V524" t="n">
+        <v>1</v>
+      </c>
+      <c r="W524" t="n">
+        <v>4</v>
+      </c>
+      <c r="X524" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y524" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z524" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA524" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB524" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC524" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD524" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE524" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF524" t="inlineStr"/>
+      <c r="AG524" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH524" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic288_oc24_bs32_st23_bl1_ly4_wd512_dp0.5_lr2e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI524" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>46002.35432748843</v>
+      </c>
+      <c r="B525" t="inlineStr"/>
+      <c r="C525" t="inlineStr"/>
+      <c r="D525" t="inlineStr"/>
+      <c r="E525" t="inlineStr"/>
+      <c r="F525" t="inlineStr"/>
+      <c r="G525" t="inlineStr"/>
+      <c r="H525" t="inlineStr"/>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic96_oc24_bs32_st23_bl1_ly4_wd512_dp0.4_lr2e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M525" t="b">
+        <v>1</v>
+      </c>
+      <c r="N525" t="inlineStr"/>
+      <c r="O525" t="inlineStr"/>
+      <c r="P525" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q525" t="n">
+        <v>96</v>
+      </c>
+      <c r="R525" t="n">
+        <v>24</v>
+      </c>
+      <c r="S525" t="inlineStr"/>
+      <c r="T525" t="n">
+        <v>32</v>
+      </c>
+      <c r="U525" t="n">
+        <v>23</v>
+      </c>
+      <c r="V525" t="n">
+        <v>1</v>
+      </c>
+      <c r="W525" t="n">
+        <v>4</v>
+      </c>
+      <c r="X525" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y525" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z525" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA525" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB525" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC525" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD525" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE525" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF525" t="inlineStr"/>
+      <c r="AG525" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH525" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic96_oc24_bs32_st23_bl1_ly4_wd512_dp0.4_lr2e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI525" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>46002.35495185185</v>
+      </c>
+      <c r="B526" t="inlineStr"/>
+      <c r="C526" t="inlineStr"/>
+      <c r="D526" t="inlineStr"/>
+      <c r="E526" t="inlineStr"/>
+      <c r="F526" t="inlineStr"/>
+      <c r="G526" t="inlineStr"/>
+      <c r="H526" t="inlineStr"/>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic312_oc24_bs32_st23_bl1_ly4_wd512_dp0.45_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M526" t="b">
+        <v>1</v>
+      </c>
+      <c r="N526" t="inlineStr"/>
+      <c r="O526" t="inlineStr"/>
+      <c r="P526" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q526" t="n">
+        <v>312</v>
+      </c>
+      <c r="R526" t="n">
+        <v>24</v>
+      </c>
+      <c r="S526" t="inlineStr"/>
+      <c r="T526" t="n">
+        <v>32</v>
+      </c>
+      <c r="U526" t="n">
+        <v>23</v>
+      </c>
+      <c r="V526" t="n">
+        <v>1</v>
+      </c>
+      <c r="W526" t="n">
+        <v>4</v>
+      </c>
+      <c r="X526" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y526" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Z526" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA526" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB526" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC526" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD526" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE526" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF526" t="inlineStr"/>
+      <c r="AG526" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH526" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic312_oc24_bs32_st23_bl1_ly4_wd512_dp0.45_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI526" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>46002.35546567129</v>
+      </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr"/>
+      <c r="E527" t="inlineStr"/>
+      <c r="F527" t="inlineStr"/>
+      <c r="G527" t="inlineStr"/>
+      <c r="H527" t="inlineStr"/>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic48_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr2e-05_encodersTrue_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M527" t="b">
+        <v>1</v>
+      </c>
+      <c r="N527" t="inlineStr"/>
+      <c r="O527" t="inlineStr"/>
+      <c r="P527" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q527" t="n">
+        <v>48</v>
+      </c>
+      <c r="R527" t="n">
+        <v>24</v>
+      </c>
+      <c r="S527" t="inlineStr"/>
+      <c r="T527" t="n">
+        <v>32</v>
+      </c>
+      <c r="U527" t="n">
+        <v>23</v>
+      </c>
+      <c r="V527" t="n">
+        <v>1</v>
+      </c>
+      <c r="W527" t="n">
+        <v>4</v>
+      </c>
+      <c r="X527" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y527" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z527" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA527" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB527" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC527" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD527" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE527" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF527" t="inlineStr">
+        <is>
+          <t>{"cyclic": {"past": ["hour", "day", "dayofweek", "dayofyear", "week", "weekday", "weekofyear", "month", "quarter"]}}</t>
+        </is>
+      </c>
+      <c r="AG527" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH527" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic48_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr2e-05_encodersTrue_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI527" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>46002.35599734954</v>
+      </c>
+      <c r="B528" t="inlineStr"/>
+      <c r="C528" t="inlineStr"/>
+      <c r="D528" t="inlineStr"/>
+      <c r="E528" t="inlineStr"/>
+      <c r="F528" t="inlineStr"/>
+      <c r="G528" t="inlineStr"/>
+      <c r="H528" t="inlineStr"/>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic120_oc24_bs32_st23_bl1_ly4_wd512_dp0.05_lr2e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M528" t="b">
+        <v>1</v>
+      </c>
+      <c r="N528" t="inlineStr"/>
+      <c r="O528" t="inlineStr"/>
+      <c r="P528" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q528" t="n">
+        <v>120</v>
+      </c>
+      <c r="R528" t="n">
+        <v>24</v>
+      </c>
+      <c r="S528" t="inlineStr"/>
+      <c r="T528" t="n">
+        <v>32</v>
+      </c>
+      <c r="U528" t="n">
+        <v>23</v>
+      </c>
+      <c r="V528" t="n">
+        <v>1</v>
+      </c>
+      <c r="W528" t="n">
+        <v>4</v>
+      </c>
+      <c r="X528" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y528" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z528" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA528" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB528" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC528" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD528" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE528" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF528" t="inlineStr"/>
+      <c r="AG528" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH528" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic120_oc24_bs32_st23_bl1_ly4_wd512_dp0.05_lr2e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI528" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>46002.35657715278</v>
+      </c>
+      <c r="B529" t="inlineStr"/>
+      <c r="C529" t="inlineStr"/>
+      <c r="D529" t="inlineStr"/>
+      <c r="E529" t="inlineStr"/>
+      <c r="F529" t="inlineStr"/>
+      <c r="G529" t="inlineStr"/>
+      <c r="H529" t="inlineStr"/>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic240_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr1e-05_encodersFalse_stride24_vl0.2_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M529" t="b">
+        <v>1</v>
+      </c>
+      <c r="N529" t="inlineStr"/>
+      <c r="O529" t="inlineStr"/>
+      <c r="P529" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q529" t="n">
+        <v>240</v>
+      </c>
+      <c r="R529" t="n">
+        <v>24</v>
+      </c>
+      <c r="S529" t="inlineStr"/>
+      <c r="T529" t="n">
+        <v>32</v>
+      </c>
+      <c r="U529" t="n">
+        <v>23</v>
+      </c>
+      <c r="V529" t="n">
+        <v>1</v>
+      </c>
+      <c r="W529" t="n">
+        <v>4</v>
+      </c>
+      <c r="X529" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y529" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z529" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AA529" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB529" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC529" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD529" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE529" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF529" t="inlineStr"/>
+      <c r="AG529" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH529" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic240_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr1e-05_encodersFalse_stride24_vl0.2_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI529" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>46002.35715105324</v>
+      </c>
+      <c r="B530" t="inlineStr"/>
+      <c r="C530" t="inlineStr"/>
+      <c r="D530" t="inlineStr"/>
+      <c r="E530" t="inlineStr"/>
+      <c r="F530" t="inlineStr"/>
+      <c r="G530" t="inlineStr"/>
+      <c r="H530" t="inlineStr"/>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic264_oc24_bs32_st23_bl1_ly4_wd512_dp0.4_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M530" t="b">
+        <v>1</v>
+      </c>
+      <c r="N530" t="inlineStr"/>
+      <c r="O530" t="inlineStr"/>
+      <c r="P530" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q530" t="n">
+        <v>264</v>
+      </c>
+      <c r="R530" t="n">
+        <v>24</v>
+      </c>
+      <c r="S530" t="inlineStr"/>
+      <c r="T530" t="n">
+        <v>32</v>
+      </c>
+      <c r="U530" t="n">
+        <v>23</v>
+      </c>
+      <c r="V530" t="n">
+        <v>1</v>
+      </c>
+      <c r="W530" t="n">
+        <v>4</v>
+      </c>
+      <c r="X530" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y530" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z530" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA530" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB530" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC530" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD530" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE530" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF530" t="inlineStr"/>
+      <c r="AG530" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH530" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic264_oc24_bs32_st23_bl1_ly4_wd512_dp0.4_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI530" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>46002.35773146991</v>
+      </c>
+      <c r="B531" t="inlineStr"/>
+      <c r="C531" t="inlineStr"/>
+      <c r="D531" t="inlineStr"/>
+      <c r="E531" t="inlineStr"/>
+      <c r="F531" t="inlineStr"/>
+      <c r="G531" t="inlineStr"/>
+      <c r="H531" t="inlineStr"/>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic336_oc24_bs32_st23_bl1_ly4_wd512_dp0.05_lr1e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M531" t="b">
+        <v>1</v>
+      </c>
+      <c r="N531" t="inlineStr"/>
+      <c r="O531" t="inlineStr"/>
+      <c r="P531" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q531" t="n">
+        <v>336</v>
+      </c>
+      <c r="R531" t="n">
+        <v>24</v>
+      </c>
+      <c r="S531" t="inlineStr"/>
+      <c r="T531" t="n">
+        <v>32</v>
+      </c>
+      <c r="U531" t="n">
+        <v>23</v>
+      </c>
+      <c r="V531" t="n">
+        <v>1</v>
+      </c>
+      <c r="W531" t="n">
+        <v>4</v>
+      </c>
+      <c r="X531" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y531" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z531" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AA531" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB531" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC531" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD531" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE531" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF531" t="inlineStr"/>
+      <c r="AG531" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH531" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic336_oc24_bs32_st23_bl1_ly4_wd512_dp0.05_lr1e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI531" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>46002.35853649305</v>
+      </c>
+      <c r="B532" t="inlineStr"/>
+      <c r="C532" t="inlineStr"/>
+      <c r="D532" t="inlineStr"/>
+      <c r="E532" t="inlineStr"/>
+      <c r="F532" t="inlineStr"/>
+      <c r="G532" t="inlineStr"/>
+      <c r="H532" t="inlineStr"/>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic168_oc24_bs32_st23_bl1_ly4_wd512_dp0.3_lr2e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M532" t="b">
+        <v>1</v>
+      </c>
+      <c r="N532" t="inlineStr"/>
+      <c r="O532" t="inlineStr"/>
+      <c r="P532" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q532" t="n">
+        <v>168</v>
+      </c>
+      <c r="R532" t="n">
+        <v>24</v>
+      </c>
+      <c r="S532" t="inlineStr"/>
+      <c r="T532" t="n">
+        <v>32</v>
+      </c>
+      <c r="U532" t="n">
+        <v>23</v>
+      </c>
+      <c r="V532" t="n">
+        <v>1</v>
+      </c>
+      <c r="W532" t="n">
+        <v>4</v>
+      </c>
+      <c r="X532" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y532" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z532" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA532" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB532" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC532" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD532" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE532" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF532" t="inlineStr"/>
+      <c r="AG532" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH532" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic168_oc24_bs32_st23_bl1_ly4_wd512_dp0.3_lr2e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI532" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>46002.35893938658</v>
+      </c>
+      <c r="B533" t="inlineStr"/>
+      <c r="C533" t="inlineStr"/>
+      <c r="D533" t="inlineStr"/>
+      <c r="E533" t="inlineStr"/>
+      <c r="F533" t="inlineStr"/>
+      <c r="G533" t="inlineStr"/>
+      <c r="H533" t="inlineStr"/>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic288_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr2e-05_encodersTrue_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M533" t="b">
+        <v>1</v>
+      </c>
+      <c r="N533" t="inlineStr"/>
+      <c r="O533" t="inlineStr"/>
+      <c r="P533" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q533" t="n">
+        <v>288</v>
+      </c>
+      <c r="R533" t="n">
+        <v>24</v>
+      </c>
+      <c r="S533" t="inlineStr"/>
+      <c r="T533" t="n">
+        <v>32</v>
+      </c>
+      <c r="U533" t="n">
+        <v>23</v>
+      </c>
+      <c r="V533" t="n">
+        <v>1</v>
+      </c>
+      <c r="W533" t="n">
+        <v>4</v>
+      </c>
+      <c r="X533" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y533" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z533" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA533" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB533" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC533" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD533" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE533" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF533" t="inlineStr">
+        <is>
+          <t>{"cyclic": {"past": ["hour", "day", "dayofweek", "dayofyear", "week", "weekday", "weekofyear", "month", "quarter"]}}</t>
+        </is>
+      </c>
+      <c r="AG533" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH533" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic288_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr2e-05_encodersTrue_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI533" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>46002.36071762731</v>
+      </c>
+      <c r="B534" t="inlineStr"/>
+      <c r="C534" t="inlineStr"/>
+      <c r="D534" t="inlineStr"/>
+      <c r="E534" t="inlineStr"/>
+      <c r="F534" t="inlineStr"/>
+      <c r="G534" t="inlineStr"/>
+      <c r="H534" t="inlineStr"/>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.05_lr2e-05_encodersFalse_stride24_vl0.2_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M534" t="b">
+        <v>1</v>
+      </c>
+      <c r="N534" t="inlineStr"/>
+      <c r="O534" t="inlineStr"/>
+      <c r="P534" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q534" t="n">
+        <v>72</v>
+      </c>
+      <c r="R534" t="n">
+        <v>24</v>
+      </c>
+      <c r="S534" t="inlineStr"/>
+      <c r="T534" t="n">
+        <v>32</v>
+      </c>
+      <c r="U534" t="n">
+        <v>23</v>
+      </c>
+      <c r="V534" t="n">
+        <v>1</v>
+      </c>
+      <c r="W534" t="n">
+        <v>4</v>
+      </c>
+      <c r="X534" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y534" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z534" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA534" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB534" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC534" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD534" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE534" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF534" t="inlineStr"/>
+      <c r="AG534" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH534" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.05_lr2e-05_encodersFalse_stride24_vl0.2_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI534" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>46002.37524680555</v>
+      </c>
+      <c r="B535" t="n">
+        <v>0.9522396847605705</v>
+      </c>
+      <c r="C535" t="n">
+        <v>0.1276475340127945</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0.1459711939096451</v>
+      </c>
+      <c r="E535" t="n">
+        <v>0.2113243341445923</v>
+      </c>
+      <c r="F535" t="n">
+        <v>0.1187879368662834</v>
+      </c>
+      <c r="G535" t="n">
+        <v>0.1344446092844009</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0.2140640765428543</v>
+      </c>
+      <c r="I535" t="n">
+        <v>134.2304</v>
+      </c>
+      <c r="J535" t="n">
+        <v>1.4481</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic144_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M535" t="b">
+        <v>1</v>
+      </c>
+      <c r="N535" t="n">
+        <v>233.8310546875</v>
+      </c>
+      <c r="O535" t="n">
+        <v>1253.728557825089</v>
+      </c>
+      <c r="P535" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q535" t="n">
+        <v>144</v>
+      </c>
+      <c r="R535" t="n">
+        <v>24</v>
+      </c>
+      <c r="S535" t="n">
+        <v>32</v>
+      </c>
+      <c r="T535" t="n">
+        <v>32</v>
+      </c>
+      <c r="U535" t="n">
+        <v>23</v>
+      </c>
+      <c r="V535" t="n">
+        <v>1</v>
+      </c>
+      <c r="W535" t="n">
+        <v>4</v>
+      </c>
+      <c r="X535" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y535" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z535" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA535" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB535" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC535" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD535" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE535" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF535" t="inlineStr"/>
+      <c r="AG535" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH535" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic144_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI535" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>46002.37728958333</v>
+      </c>
+      <c r="B536" t="inlineStr"/>
+      <c r="C536" t="inlineStr"/>
+      <c r="D536" t="inlineStr"/>
+      <c r="E536" t="inlineStr"/>
+      <c r="F536" t="inlineStr"/>
+      <c r="G536" t="inlineStr"/>
+      <c r="H536" t="inlineStr"/>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic144_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersTrue_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M536" t="b">
+        <v>1</v>
+      </c>
+      <c r="N536" t="inlineStr"/>
+      <c r="O536" t="inlineStr"/>
+      <c r="P536" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q536" t="n">
+        <v>144</v>
+      </c>
+      <c r="R536" t="n">
+        <v>24</v>
+      </c>
+      <c r="S536" t="inlineStr"/>
+      <c r="T536" t="n">
+        <v>32</v>
+      </c>
+      <c r="U536" t="n">
+        <v>23</v>
+      </c>
+      <c r="V536" t="n">
+        <v>1</v>
+      </c>
+      <c r="W536" t="n">
+        <v>4</v>
+      </c>
+      <c r="X536" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y536" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z536" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA536" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB536" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC536" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD536" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE536" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF536" t="inlineStr">
+        <is>
+          <t>{"cyclic": {"past": ["hour", "day", "dayofweek", "dayofyear", "week", "weekday", "weekofyear", "month", "quarter"]}}</t>
+        </is>
+      </c>
+      <c r="AG536" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH536" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic144_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersTrue_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI536" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>46002.37796314814</v>
+      </c>
+      <c r="B537" t="inlineStr"/>
+      <c r="C537" t="inlineStr"/>
+      <c r="D537" t="inlineStr"/>
+      <c r="E537" t="inlineStr"/>
+      <c r="F537" t="inlineStr"/>
+      <c r="G537" t="inlineStr"/>
+      <c r="H537" t="inlineStr"/>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic144_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.2_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M537" t="b">
+        <v>1</v>
+      </c>
+      <c r="N537" t="inlineStr"/>
+      <c r="O537" t="inlineStr"/>
+      <c r="P537" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q537" t="n">
+        <v>144</v>
+      </c>
+      <c r="R537" t="n">
+        <v>24</v>
+      </c>
+      <c r="S537" t="inlineStr"/>
+      <c r="T537" t="n">
+        <v>32</v>
+      </c>
+      <c r="U537" t="n">
+        <v>23</v>
+      </c>
+      <c r="V537" t="n">
+        <v>1</v>
+      </c>
+      <c r="W537" t="n">
+        <v>4</v>
+      </c>
+      <c r="X537" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y537" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z537" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA537" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB537" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC537" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD537" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE537" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF537" t="inlineStr"/>
+      <c r="AG537" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH537" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic144_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.2_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI537" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>46002.38912284722</v>
+      </c>
+      <c r="B538" t="n">
+        <v>1.12186624109745</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0.1504707336425781</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0.1787594258785248</v>
+      </c>
+      <c r="E538" t="n">
+        <v>0.2410404533147812</v>
+      </c>
+      <c r="F538" t="n">
+        <v>0.1392614245414734</v>
+      </c>
+      <c r="G538" t="n">
+        <v>0.162198543548584</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0.2501356601715088</v>
+      </c>
+      <c r="I538" t="n">
+        <v>119.8004</v>
+      </c>
+      <c r="J538" t="n">
+        <v>0.0149</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic24_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M538" t="b">
+        <v>1</v>
+      </c>
+      <c r="N538" t="n">
+        <v>97.56005859375</v>
+      </c>
+      <c r="O538" t="n">
+        <v>942.5871350765228</v>
+      </c>
+      <c r="P538" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q538" t="n">
+        <v>24</v>
+      </c>
+      <c r="R538" t="n">
+        <v>24</v>
+      </c>
+      <c r="S538" t="n">
+        <v>30</v>
+      </c>
+      <c r="T538" t="n">
+        <v>32</v>
+      </c>
+      <c r="U538" t="n">
+        <v>23</v>
+      </c>
+      <c r="V538" t="n">
+        <v>1</v>
+      </c>
+      <c r="W538" t="n">
+        <v>4</v>
+      </c>
+      <c r="X538" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y538" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z538" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA538" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB538" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC538" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD538" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE538" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF538" t="inlineStr"/>
+      <c r="AG538" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH538" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic24_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI538" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>46002.39085804398</v>
+      </c>
+      <c r="B539" t="inlineStr"/>
+      <c r="C539" t="inlineStr"/>
+      <c r="D539" t="inlineStr"/>
+      <c r="E539" t="inlineStr"/>
+      <c r="F539" t="inlineStr"/>
+      <c r="G539" t="inlineStr"/>
+      <c r="H539" t="inlineStr"/>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic216_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M539" t="b">
+        <v>1</v>
+      </c>
+      <c r="N539" t="inlineStr"/>
+      <c r="O539" t="inlineStr"/>
+      <c r="P539" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q539" t="n">
+        <v>216</v>
+      </c>
+      <c r="R539" t="n">
+        <v>24</v>
+      </c>
+      <c r="S539" t="inlineStr"/>
+      <c r="T539" t="n">
+        <v>32</v>
+      </c>
+      <c r="U539" t="n">
+        <v>23</v>
+      </c>
+      <c r="V539" t="n">
+        <v>1</v>
+      </c>
+      <c r="W539" t="n">
+        <v>4</v>
+      </c>
+      <c r="X539" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y539" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z539" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA539" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB539" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC539" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD539" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE539" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF539" t="inlineStr"/>
+      <c r="AG539" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH539" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic216_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI539" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>46002.39120386574</v>
+      </c>
+      <c r="B540" t="inlineStr"/>
+      <c r="C540" t="inlineStr"/>
+      <c r="D540" t="inlineStr"/>
+      <c r="E540" t="inlineStr"/>
+      <c r="F540" t="inlineStr"/>
+      <c r="G540" t="inlineStr"/>
+      <c r="H540" t="inlineStr"/>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic192_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr5e-05_encodersTrue_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M540" t="b">
+        <v>1</v>
+      </c>
+      <c r="N540" t="inlineStr"/>
+      <c r="O540" t="inlineStr"/>
+      <c r="P540" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q540" t="n">
+        <v>192</v>
+      </c>
+      <c r="R540" t="n">
+        <v>24</v>
+      </c>
+      <c r="S540" t="inlineStr"/>
+      <c r="T540" t="n">
+        <v>32</v>
+      </c>
+      <c r="U540" t="n">
+        <v>23</v>
+      </c>
+      <c r="V540" t="n">
+        <v>1</v>
+      </c>
+      <c r="W540" t="n">
+        <v>4</v>
+      </c>
+      <c r="X540" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y540" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z540" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA540" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB540" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC540" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD540" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE540" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF540" t="inlineStr">
+        <is>
+          <t>{"cyclic": {"past": ["hour", "day", "dayofweek", "dayofyear", "week", "weekday", "weekofyear", "month", "quarter"]}}</t>
+        </is>
+      </c>
+      <c r="AG540" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH540" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic192_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr5e-05_encodersTrue_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI540" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>46002.39285744213</v>
+      </c>
+      <c r="B541" t="inlineStr"/>
+      <c r="C541" t="inlineStr"/>
+      <c r="D541" t="inlineStr"/>
+      <c r="E541" t="inlineStr"/>
+      <c r="F541" t="inlineStr"/>
+      <c r="G541" t="inlineStr"/>
+      <c r="H541" t="inlineStr"/>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic24_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M541" t="b">
+        <v>1</v>
+      </c>
+      <c r="N541" t="inlineStr"/>
+      <c r="O541" t="inlineStr"/>
+      <c r="P541" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q541" t="n">
+        <v>24</v>
+      </c>
+      <c r="R541" t="n">
+        <v>24</v>
+      </c>
+      <c r="S541" t="inlineStr"/>
+      <c r="T541" t="n">
+        <v>32</v>
+      </c>
+      <c r="U541" t="n">
+        <v>23</v>
+      </c>
+      <c r="V541" t="n">
+        <v>1</v>
+      </c>
+      <c r="W541" t="n">
+        <v>4</v>
+      </c>
+      <c r="X541" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y541" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z541" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA541" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB541" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC541" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD541" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE541" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF541" t="inlineStr"/>
+      <c r="AG541" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH541" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic24_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI541" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>46002.39339809028</v>
+      </c>
+      <c r="B542" t="inlineStr"/>
+      <c r="C542" t="inlineStr"/>
+      <c r="D542" t="inlineStr"/>
+      <c r="E542" t="inlineStr"/>
+      <c r="F542" t="inlineStr"/>
+      <c r="G542" t="inlineStr"/>
+      <c r="H542" t="inlineStr"/>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic144_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M542" t="b">
+        <v>1</v>
+      </c>
+      <c r="N542" t="inlineStr"/>
+      <c r="O542" t="inlineStr"/>
+      <c r="P542" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q542" t="n">
+        <v>144</v>
+      </c>
+      <c r="R542" t="n">
+        <v>24</v>
+      </c>
+      <c r="S542" t="inlineStr"/>
+      <c r="T542" t="n">
+        <v>32</v>
+      </c>
+      <c r="U542" t="n">
+        <v>23</v>
+      </c>
+      <c r="V542" t="n">
+        <v>1</v>
+      </c>
+      <c r="W542" t="n">
+        <v>4</v>
+      </c>
+      <c r="X542" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y542" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z542" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA542" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB542" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC542" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD542" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE542" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF542" t="inlineStr"/>
+      <c r="AG542" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH542" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic144_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI542" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>46002.40207010417</v>
+      </c>
+      <c r="B543" t="n">
+        <v>1.221040233969688</v>
+      </c>
+      <c r="C543" t="n">
+        <v>0.1639536321163177</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0.1877691298723221</v>
+      </c>
+      <c r="E543" t="n">
+        <v>0.2670800387859344</v>
+      </c>
+      <c r="F543" t="n">
+        <v>0.1571854203939438</v>
+      </c>
+      <c r="G543" t="n">
+        <v>0.1671176105737686</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0.2779344022274017</v>
+      </c>
+      <c r="I543" t="n">
+        <v>136.3698</v>
+      </c>
+      <c r="J543" t="n">
+        <v>-0.0252</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M543" t="b">
+        <v>1</v>
+      </c>
+      <c r="N543" t="n">
+        <v>152.0283203125</v>
+      </c>
+      <c r="O543" t="n">
+        <v>748.0136156082153</v>
+      </c>
+      <c r="P543" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q543" t="n">
+        <v>72</v>
+      </c>
+      <c r="R543" t="n">
+        <v>24</v>
+      </c>
+      <c r="S543" t="n">
+        <v>20</v>
+      </c>
+      <c r="T543" t="n">
+        <v>32</v>
+      </c>
+      <c r="U543" t="n">
+        <v>23</v>
+      </c>
+      <c r="V543" t="n">
+        <v>1</v>
+      </c>
+      <c r="W543" t="n">
+        <v>4</v>
+      </c>
+      <c r="X543" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y543" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z543" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA543" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB543" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC543" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD543" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE543" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF543" t="inlineStr"/>
+      <c r="AG543" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH543" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI543" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>46002.41071009259</v>
+      </c>
+      <c r="B544" t="inlineStr"/>
+      <c r="C544" t="inlineStr"/>
+      <c r="D544" t="inlineStr"/>
+      <c r="E544" t="inlineStr"/>
+      <c r="F544" t="inlineStr"/>
+      <c r="G544" t="inlineStr"/>
+      <c r="H544" t="inlineStr"/>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic264_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M544" t="b">
+        <v>1</v>
+      </c>
+      <c r="N544" t="inlineStr"/>
+      <c r="O544" t="inlineStr"/>
+      <c r="P544" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q544" t="n">
+        <v>264</v>
+      </c>
+      <c r="R544" t="n">
+        <v>24</v>
+      </c>
+      <c r="S544" t="inlineStr"/>
+      <c r="T544" t="n">
+        <v>32</v>
+      </c>
+      <c r="U544" t="n">
+        <v>23</v>
+      </c>
+      <c r="V544" t="n">
+        <v>1</v>
+      </c>
+      <c r="W544" t="n">
+        <v>4</v>
+      </c>
+      <c r="X544" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y544" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z544" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA544" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB544" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC544" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD544" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE544" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF544" t="inlineStr"/>
+      <c r="AG544" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH544" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic264_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI544" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>46002.41209983797</v>
+      </c>
+      <c r="B545" t="inlineStr"/>
+      <c r="C545" t="inlineStr"/>
+      <c r="D545" t="inlineStr"/>
+      <c r="E545" t="inlineStr"/>
+      <c r="F545" t="inlineStr"/>
+      <c r="G545" t="inlineStr"/>
+      <c r="H545" t="inlineStr"/>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic144_oc24_bs32_st23_bl1_ly4_wd512_dp0.25_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M545" t="b">
+        <v>1</v>
+      </c>
+      <c r="N545" t="inlineStr"/>
+      <c r="O545" t="inlineStr"/>
+      <c r="P545" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q545" t="n">
+        <v>144</v>
+      </c>
+      <c r="R545" t="n">
+        <v>24</v>
+      </c>
+      <c r="S545" t="inlineStr"/>
+      <c r="T545" t="n">
+        <v>32</v>
+      </c>
+      <c r="U545" t="n">
+        <v>23</v>
+      </c>
+      <c r="V545" t="n">
+        <v>1</v>
+      </c>
+      <c r="W545" t="n">
+        <v>4</v>
+      </c>
+      <c r="X545" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y545" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z545" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA545" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB545" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC545" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD545" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE545" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF545" t="inlineStr"/>
+      <c r="AG545" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH545" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic144_oc24_bs32_st23_bl1_ly4_wd512_dp0.25_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI545" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>46002.41239108796</v>
+      </c>
+      <c r="B546" t="inlineStr"/>
+      <c r="C546" t="inlineStr"/>
+      <c r="D546" t="inlineStr"/>
+      <c r="E546" t="inlineStr"/>
+      <c r="F546" t="inlineStr"/>
+      <c r="G546" t="inlineStr"/>
+      <c r="H546" t="inlineStr"/>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic120_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M546" t="b">
+        <v>1</v>
+      </c>
+      <c r="N546" t="inlineStr"/>
+      <c r="O546" t="inlineStr"/>
+      <c r="P546" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q546" t="n">
+        <v>120</v>
+      </c>
+      <c r="R546" t="n">
+        <v>24</v>
+      </c>
+      <c r="S546" t="inlineStr"/>
+      <c r="T546" t="n">
+        <v>32</v>
+      </c>
+      <c r="U546" t="n">
+        <v>23</v>
+      </c>
+      <c r="V546" t="n">
+        <v>1</v>
+      </c>
+      <c r="W546" t="n">
+        <v>4</v>
+      </c>
+      <c r="X546" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y546" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z546" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA546" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB546" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC546" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD546" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE546" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF546" t="inlineStr"/>
+      <c r="AG546" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH546" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic120_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI546" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>46002.41293092592</v>
+      </c>
+      <c r="B547" t="inlineStr"/>
+      <c r="C547" t="inlineStr"/>
+      <c r="D547" t="inlineStr"/>
+      <c r="E547" t="inlineStr"/>
+      <c r="F547" t="inlineStr"/>
+      <c r="G547" t="inlineStr"/>
+      <c r="H547" t="inlineStr"/>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic168_oc24_bs32_st23_bl1_ly4_wd512_dp0.45_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M547" t="b">
+        <v>1</v>
+      </c>
+      <c r="N547" t="inlineStr"/>
+      <c r="O547" t="inlineStr"/>
+      <c r="P547" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q547" t="n">
+        <v>168</v>
+      </c>
+      <c r="R547" t="n">
+        <v>24</v>
+      </c>
+      <c r="S547" t="inlineStr"/>
+      <c r="T547" t="n">
+        <v>32</v>
+      </c>
+      <c r="U547" t="n">
+        <v>23</v>
+      </c>
+      <c r="V547" t="n">
+        <v>1</v>
+      </c>
+      <c r="W547" t="n">
+        <v>4</v>
+      </c>
+      <c r="X547" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y547" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Z547" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA547" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB547" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC547" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD547" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE547" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF547" t="inlineStr"/>
+      <c r="AG547" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH547" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic168_oc24_bs32_st23_bl1_ly4_wd512_dp0.45_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI547" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>46002.41345104167</v>
+      </c>
+      <c r="B548" t="inlineStr"/>
+      <c r="C548" t="inlineStr"/>
+      <c r="D548" t="inlineStr"/>
+      <c r="E548" t="inlineStr"/>
+      <c r="F548" t="inlineStr"/>
+      <c r="G548" t="inlineStr"/>
+      <c r="H548" t="inlineStr"/>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic24_oc24_bs32_st23_bl1_ly4_wd512_dp0.5_lr5e-05_encodersFalse_stride24_vl0.2_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M548" t="b">
+        <v>1</v>
+      </c>
+      <c r="N548" t="inlineStr"/>
+      <c r="O548" t="inlineStr"/>
+      <c r="P548" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q548" t="n">
+        <v>24</v>
+      </c>
+      <c r="R548" t="n">
+        <v>24</v>
+      </c>
+      <c r="S548" t="inlineStr"/>
+      <c r="T548" t="n">
+        <v>32</v>
+      </c>
+      <c r="U548" t="n">
+        <v>23</v>
+      </c>
+      <c r="V548" t="n">
+        <v>1</v>
+      </c>
+      <c r="W548" t="n">
+        <v>4</v>
+      </c>
+      <c r="X548" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y548" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z548" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA548" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB548" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC548" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD548" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE548" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF548" t="inlineStr"/>
+      <c r="AG548" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH548" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic24_oc24_bs32_st23_bl1_ly4_wd512_dp0.5_lr5e-05_encodersFalse_stride24_vl0.2_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI548" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>46002.41395399305</v>
+      </c>
+      <c r="B549" t="inlineStr"/>
+      <c r="C549" t="inlineStr"/>
+      <c r="D549" t="inlineStr"/>
+      <c r="E549" t="inlineStr"/>
+      <c r="F549" t="inlineStr"/>
+      <c r="G549" t="inlineStr"/>
+      <c r="H549" t="inlineStr"/>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic48_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr1e-05_encodersTrue_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M549" t="b">
+        <v>1</v>
+      </c>
+      <c r="N549" t="inlineStr"/>
+      <c r="O549" t="inlineStr"/>
+      <c r="P549" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q549" t="n">
+        <v>48</v>
+      </c>
+      <c r="R549" t="n">
+        <v>24</v>
+      </c>
+      <c r="S549" t="inlineStr"/>
+      <c r="T549" t="n">
+        <v>32</v>
+      </c>
+      <c r="U549" t="n">
+        <v>23</v>
+      </c>
+      <c r="V549" t="n">
+        <v>1</v>
+      </c>
+      <c r="W549" t="n">
+        <v>4</v>
+      </c>
+      <c r="X549" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y549" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z549" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AA549" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB549" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC549" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD549" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE549" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF549" t="inlineStr">
+        <is>
+          <t>{"cyclic": {"past": ["hour", "day", "dayofweek", "dayofyear", "week", "weekday", "weekofyear", "month", "quarter"]}}</t>
+        </is>
+      </c>
+      <c r="AG549" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH549" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic48_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr1e-05_encodersTrue_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI549" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>46002.41721357639</v>
+      </c>
+      <c r="B550" t="inlineStr"/>
+      <c r="C550" t="inlineStr"/>
+      <c r="D550" t="inlineStr"/>
+      <c r="E550" t="inlineStr"/>
+      <c r="F550" t="inlineStr"/>
+      <c r="G550" t="inlineStr"/>
+      <c r="H550" t="inlineStr"/>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic312_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M550" t="b">
+        <v>1</v>
+      </c>
+      <c r="N550" t="inlineStr"/>
+      <c r="O550" t="inlineStr"/>
+      <c r="P550" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q550" t="n">
+        <v>312</v>
+      </c>
+      <c r="R550" t="n">
+        <v>24</v>
+      </c>
+      <c r="S550" t="inlineStr"/>
+      <c r="T550" t="n">
+        <v>32</v>
+      </c>
+      <c r="U550" t="n">
+        <v>23</v>
+      </c>
+      <c r="V550" t="n">
+        <v>1</v>
+      </c>
+      <c r="W550" t="n">
+        <v>4</v>
+      </c>
+      <c r="X550" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y550" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z550" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA550" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB550" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC550" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD550" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE550" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF550" t="inlineStr"/>
+      <c r="AG550" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH550" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic312_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI550" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>46002.41835431713</v>
+      </c>
+      <c r="B551" t="inlineStr"/>
+      <c r="C551" t="inlineStr"/>
+      <c r="D551" t="inlineStr"/>
+      <c r="E551" t="inlineStr"/>
+      <c r="F551" t="inlineStr"/>
+      <c r="G551" t="inlineStr"/>
+      <c r="H551" t="inlineStr"/>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.3_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M551" t="b">
+        <v>1</v>
+      </c>
+      <c r="N551" t="inlineStr"/>
+      <c r="O551" t="inlineStr"/>
+      <c r="P551" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q551" t="n">
+        <v>72</v>
+      </c>
+      <c r="R551" t="n">
+        <v>24</v>
+      </c>
+      <c r="S551" t="inlineStr"/>
+      <c r="T551" t="n">
+        <v>32</v>
+      </c>
+      <c r="U551" t="n">
+        <v>23</v>
+      </c>
+      <c r="V551" t="n">
+        <v>1</v>
+      </c>
+      <c r="W551" t="n">
+        <v>4</v>
+      </c>
+      <c r="X551" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y551" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z551" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA551" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB551" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC551" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD551" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE551" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF551" t="inlineStr"/>
+      <c r="AG551" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH551" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.3_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI551" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>46002.41923685185</v>
+      </c>
+      <c r="B552" t="inlineStr"/>
+      <c r="C552" t="inlineStr"/>
+      <c r="D552" t="inlineStr"/>
+      <c r="E552" t="inlineStr"/>
+      <c r="F552" t="inlineStr"/>
+      <c r="G552" t="inlineStr"/>
+      <c r="H552" t="inlineStr"/>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic264_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M552" t="b">
+        <v>1</v>
+      </c>
+      <c r="N552" t="inlineStr"/>
+      <c r="O552" t="inlineStr"/>
+      <c r="P552" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q552" t="n">
+        <v>264</v>
+      </c>
+      <c r="R552" t="n">
+        <v>24</v>
+      </c>
+      <c r="S552" t="inlineStr"/>
+      <c r="T552" t="n">
+        <v>32</v>
+      </c>
+      <c r="U552" t="n">
+        <v>23</v>
+      </c>
+      <c r="V552" t="n">
+        <v>1</v>
+      </c>
+      <c r="W552" t="n">
+        <v>4</v>
+      </c>
+      <c r="X552" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y552" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z552" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA552" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB552" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC552" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD552" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE552" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF552" t="inlineStr"/>
+      <c r="AG552" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH552" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic264_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI552" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>46002.42319770833</v>
+      </c>
+      <c r="B553" t="inlineStr"/>
+      <c r="C553" t="inlineStr"/>
+      <c r="D553" t="inlineStr"/>
+      <c r="E553" t="inlineStr"/>
+      <c r="F553" t="inlineStr"/>
+      <c r="G553" t="inlineStr"/>
+      <c r="H553" t="inlineStr"/>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic240_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M553" t="b">
+        <v>1</v>
+      </c>
+      <c r="N553" t="inlineStr"/>
+      <c r="O553" t="inlineStr"/>
+      <c r="P553" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q553" t="n">
+        <v>240</v>
+      </c>
+      <c r="R553" t="n">
+        <v>24</v>
+      </c>
+      <c r="S553" t="inlineStr"/>
+      <c r="T553" t="n">
+        <v>32</v>
+      </c>
+      <c r="U553" t="n">
+        <v>23</v>
+      </c>
+      <c r="V553" t="n">
+        <v>1</v>
+      </c>
+      <c r="W553" t="n">
+        <v>4</v>
+      </c>
+      <c r="X553" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y553" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z553" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA553" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB553" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC553" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD553" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE553" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF553" t="inlineStr"/>
+      <c r="AG553" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH553" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic240_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI553" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>46002.42354849537</v>
+      </c>
+      <c r="B554" t="inlineStr"/>
+      <c r="C554" t="inlineStr"/>
+      <c r="D554" t="inlineStr"/>
+      <c r="E554" t="inlineStr"/>
+      <c r="F554" t="inlineStr"/>
+      <c r="G554" t="inlineStr"/>
+      <c r="H554" t="inlineStr"/>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic336_oc24_bs32_st23_bl1_ly4_wd512_dp0.4_lr1e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M554" t="b">
+        <v>1</v>
+      </c>
+      <c r="N554" t="inlineStr"/>
+      <c r="O554" t="inlineStr"/>
+      <c r="P554" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q554" t="n">
+        <v>336</v>
+      </c>
+      <c r="R554" t="n">
+        <v>24</v>
+      </c>
+      <c r="S554" t="inlineStr"/>
+      <c r="T554" t="n">
+        <v>32</v>
+      </c>
+      <c r="U554" t="n">
+        <v>23</v>
+      </c>
+      <c r="V554" t="n">
+        <v>1</v>
+      </c>
+      <c r="W554" t="n">
+        <v>4</v>
+      </c>
+      <c r="X554" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y554" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z554" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AA554" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB554" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC554" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD554" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE554" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF554" t="inlineStr"/>
+      <c r="AG554" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH554" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic336_oc24_bs32_st23_bl1_ly4_wd512_dp0.4_lr1e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI554" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>46002.43138563658</v>
+      </c>
+      <c r="B555" t="inlineStr"/>
+      <c r="C555" t="inlineStr"/>
+      <c r="D555" t="inlineStr"/>
+      <c r="E555" t="inlineStr"/>
+      <c r="F555" t="inlineStr"/>
+      <c r="G555" t="inlineStr"/>
+      <c r="H555" t="inlineStr"/>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic216_oc24_bs32_st23_bl1_ly4_wd512_dp0.25_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M555" t="b">
+        <v>1</v>
+      </c>
+      <c r="N555" t="inlineStr"/>
+      <c r="O555" t="inlineStr"/>
+      <c r="P555" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q555" t="n">
+        <v>216</v>
+      </c>
+      <c r="R555" t="n">
+        <v>24</v>
+      </c>
+      <c r="S555" t="inlineStr"/>
+      <c r="T555" t="n">
+        <v>32</v>
+      </c>
+      <c r="U555" t="n">
+        <v>23</v>
+      </c>
+      <c r="V555" t="n">
+        <v>1</v>
+      </c>
+      <c r="W555" t="n">
+        <v>4</v>
+      </c>
+      <c r="X555" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y555" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z555" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA555" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB555" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC555" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD555" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE555" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF555" t="inlineStr"/>
+      <c r="AG555" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH555" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic216_oc24_bs32_st23_bl1_ly4_wd512_dp0.25_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI555" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>46002.4316782176</v>
+      </c>
+      <c r="B556" t="inlineStr"/>
+      <c r="C556" t="inlineStr"/>
+      <c r="D556" t="inlineStr"/>
+      <c r="E556" t="inlineStr"/>
+      <c r="F556" t="inlineStr"/>
+      <c r="G556" t="inlineStr"/>
+      <c r="H556" t="inlineStr"/>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic96_oc24_bs32_st23_bl1_ly4_wd512_dp0.2_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M556" t="b">
+        <v>1</v>
+      </c>
+      <c r="N556" t="inlineStr"/>
+      <c r="O556" t="inlineStr"/>
+      <c r="P556" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q556" t="n">
+        <v>96</v>
+      </c>
+      <c r="R556" t="n">
+        <v>24</v>
+      </c>
+      <c r="S556" t="inlineStr"/>
+      <c r="T556" t="n">
+        <v>32</v>
+      </c>
+      <c r="U556" t="n">
+        <v>23</v>
+      </c>
+      <c r="V556" t="n">
+        <v>1</v>
+      </c>
+      <c r="W556" t="n">
+        <v>4</v>
+      </c>
+      <c r="X556" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y556" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z556" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA556" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB556" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC556" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD556" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE556" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF556" t="inlineStr"/>
+      <c r="AG556" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH556" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic96_oc24_bs32_st23_bl1_ly4_wd512_dp0.2_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI556" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>46002.43278466435</v>
+      </c>
+      <c r="B557" t="inlineStr"/>
+      <c r="C557" t="inlineStr"/>
+      <c r="D557" t="inlineStr"/>
+      <c r="E557" t="inlineStr"/>
+      <c r="F557" t="inlineStr"/>
+      <c r="G557" t="inlineStr"/>
+      <c r="H557" t="inlineStr"/>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic144_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersTrue_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M557" t="b">
+        <v>1</v>
+      </c>
+      <c r="N557" t="inlineStr"/>
+      <c r="O557" t="inlineStr"/>
+      <c r="P557" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q557" t="n">
+        <v>144</v>
+      </c>
+      <c r="R557" t="n">
+        <v>24</v>
+      </c>
+      <c r="S557" t="inlineStr"/>
+      <c r="T557" t="n">
+        <v>32</v>
+      </c>
+      <c r="U557" t="n">
+        <v>23</v>
+      </c>
+      <c r="V557" t="n">
+        <v>1</v>
+      </c>
+      <c r="W557" t="n">
+        <v>4</v>
+      </c>
+      <c r="X557" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y557" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z557" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA557" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB557" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC557" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD557" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE557" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF557" t="inlineStr">
+        <is>
+          <t>{"cyclic": {"past": ["hour", "day", "dayofweek", "dayofyear", "week", "weekday", "weekofyear", "month", "quarter"]}}</t>
+        </is>
+      </c>
+      <c r="AG557" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH557" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic144_oc24_bs32_st23_bl1_ly4_wd512_dp0.1_lr5e-05_encodersTrue_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI557" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>46002.4333592824</v>
+      </c>
+      <c r="B558" t="inlineStr"/>
+      <c r="C558" t="inlineStr"/>
+      <c r="D558" t="inlineStr"/>
+      <c r="E558" t="inlineStr"/>
+      <c r="F558" t="inlineStr"/>
+      <c r="G558" t="inlineStr"/>
+      <c r="H558" t="inlineStr"/>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic192_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr5e-05_encodersFalse_stride24_vl0.2_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M558" t="b">
+        <v>1</v>
+      </c>
+      <c r="N558" t="inlineStr"/>
+      <c r="O558" t="inlineStr"/>
+      <c r="P558" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q558" t="n">
+        <v>192</v>
+      </c>
+      <c r="R558" t="n">
+        <v>24</v>
+      </c>
+      <c r="S558" t="inlineStr"/>
+      <c r="T558" t="n">
+        <v>32</v>
+      </c>
+      <c r="U558" t="n">
+        <v>23</v>
+      </c>
+      <c r="V558" t="n">
+        <v>1</v>
+      </c>
+      <c r="W558" t="n">
+        <v>4</v>
+      </c>
+      <c r="X558" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y558" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z558" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA558" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB558" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC558" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD558" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE558" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF558" t="inlineStr"/>
+      <c r="AG558" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH558" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic192_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr5e-05_encodersFalse_stride24_vl0.2_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI558" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>46002.4339187037</v>
+      </c>
+      <c r="B559" t="inlineStr"/>
+      <c r="C559" t="inlineStr"/>
+      <c r="D559" t="inlineStr"/>
+      <c r="E559" t="inlineStr"/>
+      <c r="F559" t="inlineStr"/>
+      <c r="G559" t="inlineStr"/>
+      <c r="H559" t="inlineStr"/>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic264_oc24_bs32_st23_bl1_ly4_wd512_dp0.5_lr1e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M559" t="b">
+        <v>1</v>
+      </c>
+      <c r="N559" t="inlineStr"/>
+      <c r="O559" t="inlineStr"/>
+      <c r="P559" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q559" t="n">
+        <v>264</v>
+      </c>
+      <c r="R559" t="n">
+        <v>24</v>
+      </c>
+      <c r="S559" t="inlineStr"/>
+      <c r="T559" t="n">
+        <v>32</v>
+      </c>
+      <c r="U559" t="n">
+        <v>23</v>
+      </c>
+      <c r="V559" t="n">
+        <v>1</v>
+      </c>
+      <c r="W559" t="n">
+        <v>4</v>
+      </c>
+      <c r="X559" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y559" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z559" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AA559" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB559" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC559" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD559" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE559" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF559" t="inlineStr"/>
+      <c r="AG559" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH559" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic264_oc24_bs32_st23_bl1_ly4_wd512_dp0.5_lr1e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI559" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>46002.43465769676</v>
+      </c>
+      <c r="B560" t="inlineStr"/>
+      <c r="C560" t="inlineStr"/>
+      <c r="D560" t="inlineStr"/>
+      <c r="E560" t="inlineStr"/>
+      <c r="F560" t="inlineStr"/>
+      <c r="G560" t="inlineStr"/>
+      <c r="H560" t="inlineStr"/>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic24_oc24_bs32_st23_bl1_ly4_wd512_dp0.45_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M560" t="b">
+        <v>1</v>
+      </c>
+      <c r="N560" t="inlineStr"/>
+      <c r="O560" t="inlineStr"/>
+      <c r="P560" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q560" t="n">
+        <v>24</v>
+      </c>
+      <c r="R560" t="n">
+        <v>24</v>
+      </c>
+      <c r="S560" t="inlineStr"/>
+      <c r="T560" t="n">
+        <v>32</v>
+      </c>
+      <c r="U560" t="n">
+        <v>23</v>
+      </c>
+      <c r="V560" t="n">
+        <v>1</v>
+      </c>
+      <c r="W560" t="n">
+        <v>4</v>
+      </c>
+      <c r="X560" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y560" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Z560" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA560" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB560" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC560" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD560" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE560" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF560" t="inlineStr"/>
+      <c r="AG560" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH560" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic24_oc24_bs32_st23_bl1_ly4_wd512_dp0.45_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI560" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>46002.452515</v>
+      </c>
+      <c r="B561" t="n">
+        <v>0.9687034040689468</v>
+      </c>
+      <c r="C561" t="n">
+        <v>0.1273698806762695</v>
+      </c>
+      <c r="D561" t="n">
+        <v>0.1449502557516098</v>
+      </c>
+      <c r="E561" t="n">
+        <v>0.2182789146900177</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0.1213483512401581</v>
+      </c>
+      <c r="G561" t="n">
+        <v>0.1390018612146378</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0.217754140496254</v>
+      </c>
+      <c r="I561" t="n">
+        <v>119.3383</v>
+      </c>
+      <c r="J561" t="n">
+        <v>1.0424</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M561" t="b">
+        <v>1</v>
+      </c>
+      <c r="N561" t="n">
+        <v>152.0283203125</v>
+      </c>
+      <c r="O561" t="n">
+        <v>1541.607031822205</v>
+      </c>
+      <c r="P561" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q561" t="n">
+        <v>72</v>
+      </c>
+      <c r="R561" t="n">
+        <v>24</v>
+      </c>
+      <c r="S561" t="n">
+        <v>49</v>
+      </c>
+      <c r="T561" t="n">
+        <v>32</v>
+      </c>
+      <c r="U561" t="n">
+        <v>23</v>
+      </c>
+      <c r="V561" t="n">
+        <v>1</v>
+      </c>
+      <c r="W561" t="n">
+        <v>4</v>
+      </c>
+      <c r="X561" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y561" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z561" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA561" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB561" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC561" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD561" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE561" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF561" t="inlineStr"/>
+      <c r="AG561" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH561" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI561" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>46002.45279326389</v>
+      </c>
+      <c r="B562" t="inlineStr"/>
+      <c r="C562" t="inlineStr"/>
+      <c r="D562" t="inlineStr"/>
+      <c r="E562" t="inlineStr"/>
+      <c r="F562" t="inlineStr"/>
+      <c r="G562" t="inlineStr"/>
+      <c r="H562" t="inlineStr"/>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr2e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M562" t="b">
+        <v>1</v>
+      </c>
+      <c r="N562" t="inlineStr"/>
+      <c r="O562" t="inlineStr"/>
+      <c r="P562" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q562" t="n">
+        <v>72</v>
+      </c>
+      <c r="R562" t="n">
+        <v>24</v>
+      </c>
+      <c r="S562" t="inlineStr"/>
+      <c r="T562" t="n">
+        <v>32</v>
+      </c>
+      <c r="U562" t="n">
+        <v>23</v>
+      </c>
+      <c r="V562" t="n">
+        <v>1</v>
+      </c>
+      <c r="W562" t="n">
+        <v>4</v>
+      </c>
+      <c r="X562" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y562" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z562" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA562" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB562" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC562" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD562" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE562" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF562" t="inlineStr"/>
+      <c r="AG562" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH562" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr2e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI562" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>46002.45333707176</v>
+      </c>
+      <c r="B563" t="inlineStr"/>
+      <c r="C563" t="inlineStr"/>
+      <c r="D563" t="inlineStr"/>
+      <c r="E563" t="inlineStr"/>
+      <c r="F563" t="inlineStr"/>
+      <c r="G563" t="inlineStr"/>
+      <c r="H563" t="inlineStr"/>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr2e-05_encodersTrue_stride24_vl0.2_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M563" t="b">
+        <v>1</v>
+      </c>
+      <c r="N563" t="inlineStr"/>
+      <c r="O563" t="inlineStr"/>
+      <c r="P563" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q563" t="n">
+        <v>72</v>
+      </c>
+      <c r="R563" t="n">
+        <v>24</v>
+      </c>
+      <c r="S563" t="inlineStr"/>
+      <c r="T563" t="n">
+        <v>32</v>
+      </c>
+      <c r="U563" t="n">
+        <v>23</v>
+      </c>
+      <c r="V563" t="n">
+        <v>1</v>
+      </c>
+      <c r="W563" t="n">
+        <v>4</v>
+      </c>
+      <c r="X563" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y563" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z563" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA563" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB563" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC563" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD563" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE563" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF563" t="inlineStr">
+        <is>
+          <t>{"cyclic": {"past": ["hour", "day", "dayofweek", "dayofyear", "week", "weekday", "weekofyear", "month", "quarter"]}}</t>
+        </is>
+      </c>
+      <c r="AG563" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH563" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr2e-05_encodersTrue_stride24_vl0.2_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI563" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>46002.45386106482</v>
+      </c>
+      <c r="B564" t="inlineStr"/>
+      <c r="C564" t="inlineStr"/>
+      <c r="D564" t="inlineStr"/>
+      <c r="E564" t="inlineStr"/>
+      <c r="F564" t="inlineStr"/>
+      <c r="G564" t="inlineStr"/>
+      <c r="H564" t="inlineStr"/>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M564" t="b">
+        <v>1</v>
+      </c>
+      <c r="N564" t="inlineStr"/>
+      <c r="O564" t="inlineStr"/>
+      <c r="P564" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q564" t="n">
+        <v>72</v>
+      </c>
+      <c r="R564" t="n">
+        <v>24</v>
+      </c>
+      <c r="S564" t="inlineStr"/>
+      <c r="T564" t="n">
+        <v>32</v>
+      </c>
+      <c r="U564" t="n">
+        <v>23</v>
+      </c>
+      <c r="V564" t="n">
+        <v>1</v>
+      </c>
+      <c r="W564" t="n">
+        <v>4</v>
+      </c>
+      <c r="X564" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y564" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z564" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA564" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB564" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC564" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD564" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE564" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF564" t="inlineStr"/>
+      <c r="AG564" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH564" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI564" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>46002.45435564815</v>
+      </c>
+      <c r="B565" t="inlineStr"/>
+      <c r="C565" t="inlineStr"/>
+      <c r="D565" t="inlineStr"/>
+      <c r="E565" t="inlineStr"/>
+      <c r="F565" t="inlineStr"/>
+      <c r="G565" t="inlineStr"/>
+      <c r="H565" t="inlineStr"/>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr2e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M565" t="b">
+        <v>1</v>
+      </c>
+      <c r="N565" t="inlineStr"/>
+      <c r="O565" t="inlineStr"/>
+      <c r="P565" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q565" t="n">
+        <v>72</v>
+      </c>
+      <c r="R565" t="n">
+        <v>24</v>
+      </c>
+      <c r="S565" t="inlineStr"/>
+      <c r="T565" t="n">
+        <v>32</v>
+      </c>
+      <c r="U565" t="n">
+        <v>23</v>
+      </c>
+      <c r="V565" t="n">
+        <v>1</v>
+      </c>
+      <c r="W565" t="n">
+        <v>4</v>
+      </c>
+      <c r="X565" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y565" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z565" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA565" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB565" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC565" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD565" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE565" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF565" t="inlineStr"/>
+      <c r="AG565" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH565" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr2e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI565" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>46002.45467555556</v>
+      </c>
+      <c r="B566" t="inlineStr"/>
+      <c r="C566" t="inlineStr"/>
+      <c r="D566" t="inlineStr"/>
+      <c r="E566" t="inlineStr"/>
+      <c r="F566" t="inlineStr"/>
+      <c r="G566" t="inlineStr"/>
+      <c r="H566" t="inlineStr"/>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic144_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr1e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M566" t="b">
+        <v>1</v>
+      </c>
+      <c r="N566" t="inlineStr"/>
+      <c r="O566" t="inlineStr"/>
+      <c r="P566" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q566" t="n">
+        <v>144</v>
+      </c>
+      <c r="R566" t="n">
+        <v>24</v>
+      </c>
+      <c r="S566" t="inlineStr"/>
+      <c r="T566" t="n">
+        <v>32</v>
+      </c>
+      <c r="U566" t="n">
+        <v>23</v>
+      </c>
+      <c r="V566" t="n">
+        <v>1</v>
+      </c>
+      <c r="W566" t="n">
+        <v>4</v>
+      </c>
+      <c r="X566" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y566" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z566" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AA566" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB566" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC566" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD566" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE566" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF566" t="inlineStr"/>
+      <c r="AG566" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH566" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic144_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr1e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI566" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>46002.45543114583</v>
+      </c>
+      <c r="B567" t="inlineStr"/>
+      <c r="C567" t="inlineStr"/>
+      <c r="D567" t="inlineStr"/>
+      <c r="E567" t="inlineStr"/>
+      <c r="F567" t="inlineStr"/>
+      <c r="G567" t="inlineStr"/>
+      <c r="H567" t="inlineStr"/>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic120_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M567" t="b">
+        <v>1</v>
+      </c>
+      <c r="N567" t="inlineStr"/>
+      <c r="O567" t="inlineStr"/>
+      <c r="P567" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q567" t="n">
+        <v>120</v>
+      </c>
+      <c r="R567" t="n">
+        <v>24</v>
+      </c>
+      <c r="S567" t="inlineStr"/>
+      <c r="T567" t="n">
+        <v>32</v>
+      </c>
+      <c r="U567" t="n">
+        <v>23</v>
+      </c>
+      <c r="V567" t="n">
+        <v>1</v>
+      </c>
+      <c r="W567" t="n">
+        <v>4</v>
+      </c>
+      <c r="X567" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y567" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z567" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA567" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB567" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC567" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD567" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE567" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF567" t="inlineStr"/>
+      <c r="AG567" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH567" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic120_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI567" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>46002.45632962963</v>
+      </c>
+      <c r="B568" t="inlineStr"/>
+      <c r="C568" t="inlineStr"/>
+      <c r="D568" t="inlineStr"/>
+      <c r="E568" t="inlineStr"/>
+      <c r="F568" t="inlineStr"/>
+      <c r="G568" t="inlineStr"/>
+      <c r="H568" t="inlineStr"/>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic168_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M568" t="b">
+        <v>1</v>
+      </c>
+      <c r="N568" t="inlineStr"/>
+      <c r="O568" t="inlineStr"/>
+      <c r="P568" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q568" t="n">
+        <v>168</v>
+      </c>
+      <c r="R568" t="n">
+        <v>24</v>
+      </c>
+      <c r="S568" t="inlineStr"/>
+      <c r="T568" t="n">
+        <v>32</v>
+      </c>
+      <c r="U568" t="n">
+        <v>23</v>
+      </c>
+      <c r="V568" t="n">
+        <v>1</v>
+      </c>
+      <c r="W568" t="n">
+        <v>4</v>
+      </c>
+      <c r="X568" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y568" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z568" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA568" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB568" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC568" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD568" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE568" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF568" t="inlineStr"/>
+      <c r="AG568" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH568" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic168_oc24_bs32_st23_bl1_ly4_wd512_dp0.15_lr5e-05_encodersFalse_stride24_vl0.25_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI568" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>46002.45659143518</v>
+      </c>
+      <c r="B569" t="inlineStr"/>
+      <c r="C569" t="inlineStr"/>
+      <c r="D569" t="inlineStr"/>
+      <c r="E569" t="inlineStr"/>
+      <c r="F569" t="inlineStr"/>
+      <c r="G569" t="inlineStr"/>
+      <c r="H569" t="inlineStr"/>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic48_oc24_bs32_st23_bl1_ly4_wd512_dp0.3_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M569" t="b">
+        <v>1</v>
+      </c>
+      <c r="N569" t="inlineStr"/>
+      <c r="O569" t="inlineStr"/>
+      <c r="P569" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q569" t="n">
+        <v>48</v>
+      </c>
+      <c r="R569" t="n">
+        <v>24</v>
+      </c>
+      <c r="S569" t="inlineStr"/>
+      <c r="T569" t="n">
+        <v>32</v>
+      </c>
+      <c r="U569" t="n">
+        <v>23</v>
+      </c>
+      <c r="V569" t="n">
+        <v>1</v>
+      </c>
+      <c r="W569" t="n">
+        <v>4</v>
+      </c>
+      <c r="X569" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y569" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z569" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA569" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB569" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC569" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD569" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE569" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF569" t="inlineStr"/>
+      <c r="AG569" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH569" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic48_oc24_bs32_st23_bl1_ly4_wd512_dp0.3_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI569" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>46002.45710789352</v>
+      </c>
+      <c r="B570" t="inlineStr"/>
+      <c r="C570" t="inlineStr"/>
+      <c r="D570" t="inlineStr"/>
+      <c r="E570" t="inlineStr"/>
+      <c r="F570" t="inlineStr"/>
+      <c r="G570" t="inlineStr"/>
+      <c r="H570" t="inlineStr"/>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.4_lr5e-05_encodersTrue_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M570" t="b">
+        <v>1</v>
+      </c>
+      <c r="N570" t="inlineStr"/>
+      <c r="O570" t="inlineStr"/>
+      <c r="P570" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q570" t="n">
+        <v>72</v>
+      </c>
+      <c r="R570" t="n">
+        <v>24</v>
+      </c>
+      <c r="S570" t="inlineStr"/>
+      <c r="T570" t="n">
+        <v>32</v>
+      </c>
+      <c r="U570" t="n">
+        <v>23</v>
+      </c>
+      <c r="V570" t="n">
+        <v>1</v>
+      </c>
+      <c r="W570" t="n">
+        <v>4</v>
+      </c>
+      <c r="X570" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y570" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z570" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA570" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB570" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC570" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD570" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE570" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF570" t="inlineStr">
+        <is>
+          <t>{"cyclic": {"past": ["hour", "day", "dayofweek", "dayofyear", "week", "weekday", "weekofyear", "month", "quarter"]}}</t>
+        </is>
+      </c>
+      <c r="AG570" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH570" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic72_oc24_bs32_st23_bl1_ly4_wd512_dp0.4_lr5e-05_encodersTrue_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI570" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>46002.45768420139</v>
+      </c>
+      <c r="B571" t="inlineStr"/>
+      <c r="C571" t="inlineStr"/>
+      <c r="D571" t="inlineStr"/>
+      <c r="E571" t="inlineStr"/>
+      <c r="F571" t="inlineStr"/>
+      <c r="G571" t="inlineStr"/>
+      <c r="H571" t="inlineStr"/>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic312_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr2e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M571" t="b">
+        <v>1</v>
+      </c>
+      <c r="N571" t="inlineStr"/>
+      <c r="O571" t="inlineStr"/>
+      <c r="P571" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q571" t="n">
+        <v>312</v>
+      </c>
+      <c r="R571" t="n">
+        <v>24</v>
+      </c>
+      <c r="S571" t="inlineStr"/>
+      <c r="T571" t="n">
+        <v>32</v>
+      </c>
+      <c r="U571" t="n">
+        <v>23</v>
+      </c>
+      <c r="V571" t="n">
+        <v>1</v>
+      </c>
+      <c r="W571" t="n">
+        <v>4</v>
+      </c>
+      <c r="X571" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y571" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z571" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AA571" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB571" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC571" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD571" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE571" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF571" t="inlineStr"/>
+      <c r="AG571" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH571" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic312_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr2e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI571" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>46002.45823326389</v>
+      </c>
+      <c r="B572" t="inlineStr"/>
+      <c r="C572" t="inlineStr"/>
+      <c r="D572" t="inlineStr"/>
+      <c r="E572" t="inlineStr"/>
+      <c r="F572" t="inlineStr"/>
+      <c r="G572" t="inlineStr"/>
+      <c r="H572" t="inlineStr"/>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic144_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr5e-05_encodersFalse_stride24_vl0.2_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M572" t="b">
+        <v>1</v>
+      </c>
+      <c r="N572" t="inlineStr"/>
+      <c r="O572" t="inlineStr"/>
+      <c r="P572" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q572" t="n">
+        <v>144</v>
+      </c>
+      <c r="R572" t="n">
+        <v>24</v>
+      </c>
+      <c r="S572" t="inlineStr"/>
+      <c r="T572" t="n">
+        <v>32</v>
+      </c>
+      <c r="U572" t="n">
+        <v>23</v>
+      </c>
+      <c r="V572" t="n">
+        <v>1</v>
+      </c>
+      <c r="W572" t="n">
+        <v>4</v>
+      </c>
+      <c r="X572" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y572" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z572" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA572" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB572" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC572" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD572" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE572" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF572" t="inlineStr"/>
+      <c r="AG572" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH572" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic144_oc24_bs32_st23_bl1_ly4_wd512_dp0.35_lr5e-05_encodersFalse_stride24_vl0.2_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI572" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>46002.45902458146</v>
+      </c>
+      <c r="B573" t="inlineStr"/>
+      <c r="C573" t="inlineStr"/>
+      <c r="D573" t="inlineStr"/>
+      <c r="E573" t="inlineStr"/>
+      <c r="F573" t="inlineStr"/>
+      <c r="G573" t="inlineStr"/>
+      <c r="H573" t="inlineStr"/>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>PRUNED</t>
+        </is>
+      </c>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_ic240_oc24_bs32_st23_bl1_ly4_wd512_dp0.2_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M573" t="b">
+        <v>1</v>
+      </c>
+      <c r="N573" t="inlineStr"/>
+      <c r="O573" t="inlineStr"/>
+      <c r="P573" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q573" t="n">
+        <v>240</v>
+      </c>
+      <c r="R573" t="n">
+        <v>24</v>
+      </c>
+      <c r="S573" t="inlineStr"/>
+      <c r="T573" t="n">
+        <v>32</v>
+      </c>
+      <c r="U573" t="n">
+        <v>23</v>
+      </c>
+      <c r="V573" t="n">
+        <v>1</v>
+      </c>
+      <c r="W573" t="n">
+        <v>4</v>
+      </c>
+      <c r="X573" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y573" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z573" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="AA573" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB573" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC573" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD573" t="inlineStr">
+        <is>
+          <t>["x1", "x2", "x3", "x6", "x8"]</t>
+        </is>
+      </c>
+      <c r="AE573" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF573" t="inlineStr"/>
+      <c r="AG573" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 8, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AH573" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats/optuna_nbeats_ic240_oc24_bs32_st23_bl1_ly4_wd512_dp0.2_lr5e-05_encodersFalse_stride24_vl0.3_cov5_onehotTrue_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AI573" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
